--- a/2022-05-09.xlsx
+++ b/2022-05-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>full list</t>
   </si>
@@ -28,49 +28,118 @@
     <t>industry_cnt</t>
   </si>
   <si>
+    <t>601077, 渝农商行, 银行</t>
+  </si>
+  <si>
+    <t>000806, ST银河, 电气设备</t>
+  </si>
+  <si>
+    <t>600163, 中闽能源, 公用事业</t>
+  </si>
+  <si>
+    <t>603583, 捷昌驱动, 电气设备</t>
+  </si>
+  <si>
+    <t>600176, 中国巨石, 化工</t>
+  </si>
+  <si>
+    <t>000932, 华菱钢铁, 钢铁</t>
+  </si>
+  <si>
+    <t>600528, 中铁工业, 机械设备</t>
+  </si>
+  <si>
+    <t>600787, 中储股份, 交通运输</t>
+  </si>
+  <si>
+    <t>000826, 启迪环境, 公用事业</t>
+  </si>
+  <si>
+    <t>002968, 新大正, 房地产</t>
+  </si>
+  <si>
+    <t>002081, 金螳螂, 建筑装饰</t>
+  </si>
+  <si>
+    <t>002250, 联化科技, 化工</t>
+  </si>
+  <si>
+    <t>600225, *ST松江, 房地产</t>
+  </si>
+  <si>
+    <t>603007, ST花王, 建筑装饰</t>
+  </si>
+  <si>
+    <t>000598, 兴蓉环境, 公用事业</t>
+  </si>
+  <si>
+    <t>000672, 上峰水泥, 建筑材料</t>
+  </si>
+  <si>
+    <t>603777, 来伊份, 食品饮料</t>
+  </si>
+  <si>
     <t>600023, 浙能电力, 公用事业</t>
   </si>
   <si>
+    <t>000971, ST高升, 通信</t>
+  </si>
+  <si>
+    <t>000581, 威孚高科, 汽车</t>
+  </si>
+  <si>
     <t>600179, 安通控股, 交通运输</t>
   </si>
   <si>
-    <t>000672, 上峰水泥, 建筑材料</t>
-  </si>
-  <si>
-    <t>000571, ST大洲, 采掘</t>
-  </si>
-  <si>
-    <t>600176, 中国巨石, 化工</t>
-  </si>
-  <si>
-    <t>601077, 渝农商行, 银行</t>
-  </si>
-  <si>
-    <t>000598, 兴蓉环境, 公用事业</t>
-  </si>
-  <si>
-    <t>002705, 新宝股份, 家用电器</t>
+    <t>600035, 楚天高速, 交通运输</t>
+  </si>
+  <si>
+    <t>002810, 山东赫达, 化工</t>
+  </si>
+  <si>
+    <t>002461, 珠江啤酒, 食品饮料</t>
+  </si>
+  <si>
+    <t>002444, 巨星科技, 机械设备</t>
+  </si>
+  <si>
+    <t>000506, 中润资源, 房地产</t>
+  </si>
+  <si>
+    <t>002034, 旺能环境, 公用事业</t>
+  </si>
+  <si>
+    <t>002352, 顺丰控股, 交通运输</t>
+  </si>
+  <si>
+    <t>003816, 中国广核, 公用事业</t>
+  </si>
+  <si>
+    <t>600060, 海信视像, 家用电器</t>
+  </si>
+  <si>
+    <t>601326, 秦港股份, 交通运输</t>
+  </si>
+  <si>
+    <t>002628, 成都路桥, 建筑装饰</t>
   </si>
   <si>
     <t>600000, 浦发银行, 银行</t>
   </si>
   <si>
-    <t>003816, 中国广核, 公用事业</t>
-  </si>
-  <si>
-    <t>600163, 中闽能源, 公用事业</t>
+    <t>000501, 鄂武商A, 商业贸易</t>
+  </si>
+  <si>
+    <t>603155, 新亚强, 化工</t>
   </si>
   <si>
     <t>600887, 伊利股份, 食品饮料</t>
   </si>
   <si>
-    <t>601058, 赛轮轮胎, 化工</t>
-  </si>
-  <si>
-    <t>000581, 威孚高科, 汽车</t>
-  </si>
-  <si>
-    <t>600528, 中铁工业, 机械设备</t>
+    <t>603577, 汇金通, 电气设备</t>
+  </si>
+  <si>
+    <t>000848, 承德露露, 食品饮料</t>
   </si>
   <si>
     <t>600000, 浦发银行, 4, 银行</t>
@@ -79,6 +148,12 @@
     <t>600023, 浙能电力, -36, 公用事业</t>
   </si>
   <si>
+    <t>600035, 楚天高速, 6, 交通运输</t>
+  </si>
+  <si>
+    <t>600060, 海信视像, 11, 家用电器</t>
+  </si>
+  <si>
     <t>600163, 中闽能源, 18, 公用事业</t>
   </si>
   <si>
@@ -88,19 +163,34 @@
     <t>600179, 安通控股, 6, 交通运输</t>
   </si>
   <si>
+    <t>600225, *ST松江, 10, 房地产</t>
+  </si>
+  <si>
     <t>600528, 中铁工业, 9, 机械设备</t>
   </si>
   <si>
+    <t>600787, 中储股份, 10, 交通运输</t>
+  </si>
+  <si>
     <t>600887, 伊利股份, 25, 食品饮料</t>
   </si>
   <si>
-    <t>601058, 赛轮轮胎, 25, 化工</t>
-  </si>
-  <si>
     <t>601077, 渝农商行, 4, 银行</t>
   </si>
   <si>
-    <t>000571, ST大洲, -21, 采掘</t>
+    <t>601326, 秦港股份, 14, 交通运输</t>
+  </si>
+  <si>
+    <t>603007, ST花王, -1, 建筑装饰</t>
+  </si>
+  <si>
+    <t>603155, 新亚强, 22, 化工</t>
+  </si>
+  <si>
+    <t>000501, 鄂武商A, 11, 商业贸易</t>
+  </si>
+  <si>
+    <t>000506, 中润资源, 13, 房地产</t>
   </si>
   <si>
     <t>000581, 威孚高科, 8, 汽车</t>
@@ -112,7 +202,37 @@
     <t>000672, 上峰水泥, 7, 建筑材料</t>
   </si>
   <si>
-    <t>002705, 新宝股份, 17, 家用电器</t>
+    <t>000806, ST银河, -2, 电气设备</t>
+  </si>
+  <si>
+    <t>000826, 启迪环境, -0, 公用事业</t>
+  </si>
+  <si>
+    <t>000848, 承德露露, 14, 食品饮料</t>
+  </si>
+  <si>
+    <t>000932, 华菱钢铁, 3, 钢铁</t>
+  </si>
+  <si>
+    <t>000971, ST高升, -4, 通信</t>
+  </si>
+  <si>
+    <t>002034, 旺能环境, 11, 公用事业</t>
+  </si>
+  <si>
+    <t>002081, 金螳螂, -2, 建筑装饰</t>
+  </si>
+  <si>
+    <t>002352, 顺丰控股, 38, 交通运输</t>
+  </si>
+  <si>
+    <t>002444, 巨星科技, 15, 机械设备</t>
+  </si>
+  <si>
+    <t>002461, 珠江啤酒, 27, 食品饮料</t>
+  </si>
+  <si>
+    <t>002968, 新大正, 30, 房地产</t>
   </si>
   <si>
     <t>003816, 中国广核, 13, 公用事业</t>
@@ -121,31 +241,46 @@
     <t>公用事业</t>
   </si>
   <si>
+    <t>交通运输</t>
+  </si>
+  <si>
+    <t>食品饮料</t>
+  </si>
+  <si>
+    <t>化工</t>
+  </si>
+  <si>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>建筑装饰</t>
+  </si>
+  <si>
     <t>银行</t>
   </si>
   <si>
-    <t>化工</t>
-  </si>
-  <si>
-    <t>食品饮料</t>
-  </si>
-  <si>
-    <t>采掘</t>
+    <t>机械设备</t>
+  </si>
+  <si>
+    <t>钢铁</t>
+  </si>
+  <si>
+    <t>通信</t>
   </si>
   <si>
     <t>汽车</t>
   </si>
   <si>
-    <t>机械设备</t>
-  </si>
-  <si>
     <t>建筑材料</t>
   </si>
   <si>
     <t>家用电器</t>
   </si>
   <si>
-    <t>交通运输</t>
+    <t>商业贸易</t>
   </si>
 </sst>
 </file>
@@ -486,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,13 +646,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -525,13 +660,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -539,13 +674,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -553,13 +688,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -567,13 +702,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -581,13 +716,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -595,13 +730,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -609,13 +744,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -623,13 +758,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -637,10 +772,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -651,7 +786,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -659,7 +800,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -667,7 +814,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -675,7 +828,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -683,7 +842,179 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
